--- a/ comexcel/Test/Test/Temp/ExcelFormat/SalesRecord.xlsx
+++ b/ comexcel/Test/Test/Temp/ExcelFormat/SalesRecord.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Invoice No</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Vessel Name</t>
+  </si>
+  <si>
+    <t>Style No</t>
   </si>
 </sst>
 </file>
@@ -76,10 +79,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,56 +385,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
